--- a/itha-wen-ua/checklist.xlsx
+++ b/itha-wen-ua/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/itha-wen-ua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A92692-835E-7641-A661-CB70A0EF9BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15376B9-49F8-B648-B70F-9B7E2DD14FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{547DD57C-AE31-6B4F-819E-7ADE329A2DEA}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Itha Wen Ua: Basic Rule Set</t>
   </si>
   <si>
-    <t>Itha Wen Ua: Intermedie Rule Set</t>
-  </si>
-  <si>
     <t>Itha Wen Ua: Advanced Rule Set</t>
+  </si>
+  <si>
+    <t>Itha Wen Ua: Intermediate Rule Set</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
